--- a/DATA_goal/Junction_Flooding_340.xlsx
+++ b/DATA_goal/Junction_Flooding_340.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>45021.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.05</v>
+        <v>40.51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.46</v>
+        <v>34.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.72</v>
+        <v>47.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.85</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.52</v>
+        <v>215.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4</v>
+        <v>40.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.15</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.4</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.35</v>
+        <v>43.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45021.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.47</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.81</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.07</v>
+        <v>40.67</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.41</v>
+        <v>34.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.73</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.63</v>
+        <v>56.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.39</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.55</v>
+        <v>215.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.05</v>
+        <v>40.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.75</v>
+        <v>27.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.77</v>
+        <v>27.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.19</v>
+        <v>51.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45021.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.76</v>
+        <v>37.58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.14</v>
+        <v>31.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.34</v>
+        <v>53.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.85</v>
+        <v>198.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.75</v>
+        <v>37.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.55</v>
+        <v>25.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.59</v>
+        <v>25.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.89</v>
+        <v>48.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_340.xlsx
+++ b/DATA_goal/Junction_Flooding_340.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>45021.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.3</v>
+        <v>18.298</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.63</v>
+        <v>13.631</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.51</v>
+        <v>40.513</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.58</v>
+        <v>34.576</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.71</v>
+        <v>14.709</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.17</v>
+        <v>47.167</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.18</v>
+        <v>22.181</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.1</v>
+        <v>10.095</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.44</v>
+        <v>15.441</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.42</v>
+        <v>17.417</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>16.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.59</v>
+        <v>5.591</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.5</v>
+        <v>14.498</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>20.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.85</v>
+        <v>11.852</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.217</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.899</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.24</v>
+        <v>215.235</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.05</v>
+        <v>40.048</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.39</v>
+        <v>13.394</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.22</v>
+        <v>27.216</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.15</v>
+        <v>14.155</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.79</v>
+        <v>2.793</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.4</v>
+        <v>24.398</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.88</v>
+        <v>11.879</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.23</v>
+        <v>10.227</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.52</v>
+        <v>12.515</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.16</v>
+        <v>18.155</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.052</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.5</v>
+        <v>43.501</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>8.116</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.49</v>
+        <v>16.494</v>
       </c>
     </row>
     <row r="4">
@@ -863,97 +863,97 @@
         <v>45021.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.47</v>
+        <v>18.471</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.81</v>
+        <v>13.812</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.822</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.67</v>
+        <v>40.671</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.13</v>
+        <v>34.128</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.73</v>
+        <v>14.725</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>56.33</v>
+        <v>56.327</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.39</v>
+        <v>22.387</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.17</v>
+        <v>10.172</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.3</v>
+        <v>15.304</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.95</v>
+        <v>16.949</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.04</v>
+        <v>17.042</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>5.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.52</v>
+        <v>14.515</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.88</v>
+        <v>20.877</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.01</v>
+        <v>12.006</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.78</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>215.55</v>
+        <v>215.547</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>40.54</v>
+        <v>40.537</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.41</v>
+        <v>13.409</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.53</v>
+        <v>27.533</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.32</v>
+        <v>14.324</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.45</v>
+        <v>2.446</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.65</v>
+        <v>27.654</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.93</v>
+        <v>11.928</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.32</v>
+        <v>10.316</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.51</v>
+        <v>12.511</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.76</v>
+        <v>17.755</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.659</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.89</v>
+        <v>51.893</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>7.97</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45021.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_340.xlsx
+++ b/DATA_goal/Junction_Flooding_340.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45021.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.11</v>
+        <v>17.106</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.81</v>
+        <v>12.806</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.58</v>
+        <v>37.579</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.38</v>
+        <v>31.383</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>13.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.37</v>
+        <v>53.374</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.73</v>
+        <v>20.731</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.404999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.09</v>
+        <v>14.094</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.51</v>
+        <v>15.508</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.79</v>
+        <v>15.787</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.73</v>
+        <v>4.727</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.41</v>
+        <v>13.411</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.31</v>
+        <v>19.315</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.13</v>
+        <v>11.128</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.679</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.48</v>
+        <v>198.482</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.52</v>
+        <v>37.523</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.39</v>
+        <v>12.385</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.48</v>
+        <v>25.481</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.28</v>
+        <v>13.275</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.15</v>
+        <v>2.149</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.86</v>
+        <v>25.863</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.02</v>
+        <v>11.022</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.27</v>
+        <v>16.267</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>48.888</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>7.308</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>15.433</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45021.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>48.89</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>15.43</v>
+      <c r="K6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_340.xlsx
+++ b/DATA_goal/Junction_Flooding_340.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45021.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.106</v>
+        <v>17.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.806</v>
+        <v>12.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.579</v>
+        <v>37.58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.383</v>
+        <v>31.38</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>13.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.374</v>
+        <v>53.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.731</v>
+        <v>20.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.404999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.094</v>
+        <v>14.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.508</v>
+        <v>15.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.787</v>
+        <v>15.79</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.727</v>
+        <v>4.73</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.411</v>
+        <v>13.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.315</v>
+        <v>19.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.128</v>
+        <v>11.13</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>198.482</v>
+        <v>198.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.523</v>
+        <v>37.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.385</v>
+        <v>12.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.481</v>
+        <v>25.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.275</v>
+        <v>13.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.149</v>
+        <v>2.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.863</v>
+        <v>25.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.022</v>
+        <v>11.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.547000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.533</v>
+        <v>11.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.267</v>
+        <v>16.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.487</v>
+        <v>0.49</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.888</v>
+        <v>48.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.308</v>
+        <v>7.31</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.433</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45021.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.32</v>
+        <v>15.43</v>
       </c>
     </row>
   </sheetData>
